--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_191.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_191.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32420-d1199559-Reviews-Days_Inn_Suites_Anaheim_Resort-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>353</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Days-Inn-Suites-By-Wyndham-Anaheim-Resort.h2238843.Hotel-Information?chkin=6%2F18%2F2018&amp;chkout=6%2F19%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528258015469&amp;cancellable=false&amp;regionId=7972&amp;vip=false&amp;c=3dfc2842-18be-4d88-a2cb-d57b54a1ffd1&amp;mctc=9&amp;exp_dp=123.4&amp;exp_ts=1528258016015&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_191.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_191.xlsx
@@ -5018,7 +5018,7 @@
         <v>58158</v>
       </c>
       <c r="B2" t="n">
-        <v>135061</v>
+        <v>165972</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -5213,7 +5213,7 @@
         <v>58158</v>
       </c>
       <c r="B5" t="n">
-        <v>135062</v>
+        <v>165973</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -5288,7 +5288,7 @@
         <v>58158</v>
       </c>
       <c r="B6" t="n">
-        <v>135063</v>
+        <v>165974</v>
       </c>
       <c r="C6" t="s">
         <v>84</v>
@@ -5353,7 +5353,7 @@
         <v>58158</v>
       </c>
       <c r="B7" t="n">
-        <v>135064</v>
+        <v>165975</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -5493,7 +5493,7 @@
         <v>58158</v>
       </c>
       <c r="B9" t="n">
-        <v>135065</v>
+        <v>165976</v>
       </c>
       <c r="C9" t="s">
         <v>110</v>
@@ -5568,7 +5568,7 @@
         <v>58158</v>
       </c>
       <c r="B10" t="n">
-        <v>135066</v>
+        <v>165977</v>
       </c>
       <c r="C10" t="s">
         <v>117</v>
@@ -5643,7 +5643,7 @@
         <v>58158</v>
       </c>
       <c r="B11" t="n">
-        <v>135067</v>
+        <v>165978</v>
       </c>
       <c r="C11" t="s">
         <v>127</v>
@@ -5718,7 +5718,7 @@
         <v>58158</v>
       </c>
       <c r="B12" t="n">
-        <v>135068</v>
+        <v>165979</v>
       </c>
       <c r="C12" t="s">
         <v>137</v>
@@ -5793,7 +5793,7 @@
         <v>58158</v>
       </c>
       <c r="B13" t="n">
-        <v>135069</v>
+        <v>165980</v>
       </c>
       <c r="C13" t="s">
         <v>147</v>
@@ -5933,7 +5933,7 @@
         <v>58158</v>
       </c>
       <c r="B15" t="n">
-        <v>135070</v>
+        <v>165981</v>
       </c>
       <c r="C15" t="s">
         <v>164</v>
@@ -6008,7 +6008,7 @@
         <v>58158</v>
       </c>
       <c r="B16" t="n">
-        <v>135071</v>
+        <v>165982</v>
       </c>
       <c r="C16" t="s">
         <v>173</v>
@@ -6073,7 +6073,7 @@
         <v>58158</v>
       </c>
       <c r="B17" t="n">
-        <v>135072</v>
+        <v>165983</v>
       </c>
       <c r="C17" t="s">
         <v>182</v>
@@ -6209,7 +6209,7 @@
         <v>58158</v>
       </c>
       <c r="B19" t="n">
-        <v>135073</v>
+        <v>165984</v>
       </c>
       <c r="C19" t="s">
         <v>196</v>
@@ -6284,7 +6284,7 @@
         <v>58158</v>
       </c>
       <c r="B20" t="n">
-        <v>135074</v>
+        <v>165985</v>
       </c>
       <c r="C20" t="s">
         <v>206</v>
@@ -6359,7 +6359,7 @@
         <v>58158</v>
       </c>
       <c r="B21" t="n">
-        <v>135075</v>
+        <v>165986</v>
       </c>
       <c r="C21" t="s">
         <v>216</v>
@@ -6428,7 +6428,7 @@
         <v>58158</v>
       </c>
       <c r="B22" t="n">
-        <v>135076</v>
+        <v>165987</v>
       </c>
       <c r="C22" t="s">
         <v>222</v>
@@ -6503,7 +6503,7 @@
         <v>58158</v>
       </c>
       <c r="B23" t="n">
-        <v>135077</v>
+        <v>165988</v>
       </c>
       <c r="C23" t="s">
         <v>229</v>
@@ -6578,7 +6578,7 @@
         <v>58158</v>
       </c>
       <c r="B24" t="n">
-        <v>135078</v>
+        <v>165989</v>
       </c>
       <c r="C24" t="s">
         <v>238</v>
@@ -6651,7 +6651,7 @@
         <v>58158</v>
       </c>
       <c r="B25" t="n">
-        <v>135079</v>
+        <v>165990</v>
       </c>
       <c r="C25" t="s">
         <v>244</v>
@@ -6726,7 +6726,7 @@
         <v>58158</v>
       </c>
       <c r="B26" t="n">
-        <v>135080</v>
+        <v>165991</v>
       </c>
       <c r="C26" t="s">
         <v>251</v>
@@ -6793,7 +6793,7 @@
         <v>58158</v>
       </c>
       <c r="B27" t="n">
-        <v>135081</v>
+        <v>165992</v>
       </c>
       <c r="C27" t="s">
         <v>259</v>
@@ -6868,7 +6868,7 @@
         <v>58158</v>
       </c>
       <c r="B28" t="n">
-        <v>135082</v>
+        <v>165993</v>
       </c>
       <c r="C28" t="s">
         <v>268</v>
@@ -6939,7 +6939,7 @@
         <v>58158</v>
       </c>
       <c r="B29" t="n">
-        <v>135083</v>
+        <v>165994</v>
       </c>
       <c r="C29" t="s">
         <v>275</v>
@@ -7010,7 +7010,7 @@
         <v>58158</v>
       </c>
       <c r="B30" t="n">
-        <v>135084</v>
+        <v>165995</v>
       </c>
       <c r="C30" t="s">
         <v>281</v>
@@ -7152,7 +7152,7 @@
         <v>58158</v>
       </c>
       <c r="B32" t="n">
-        <v>135085</v>
+        <v>165996</v>
       </c>
       <c r="C32" t="s">
         <v>294</v>
@@ -7223,7 +7223,7 @@
         <v>58158</v>
       </c>
       <c r="B33" t="n">
-        <v>135086</v>
+        <v>165997</v>
       </c>
       <c r="C33" t="s">
         <v>300</v>
@@ -7294,7 +7294,7 @@
         <v>58158</v>
       </c>
       <c r="B34" t="n">
-        <v>135087</v>
+        <v>165998</v>
       </c>
       <c r="C34" t="s">
         <v>306</v>
@@ -7365,7 +7365,7 @@
         <v>58158</v>
       </c>
       <c r="B35" t="n">
-        <v>135088</v>
+        <v>165999</v>
       </c>
       <c r="C35" t="s">
         <v>314</v>
@@ -7436,7 +7436,7 @@
         <v>58158</v>
       </c>
       <c r="B36" t="n">
-        <v>135089</v>
+        <v>166000</v>
       </c>
       <c r="C36" t="s">
         <v>322</v>
@@ -7507,7 +7507,7 @@
         <v>58158</v>
       </c>
       <c r="B37" t="n">
-        <v>135090</v>
+        <v>166001</v>
       </c>
       <c r="C37" t="s">
         <v>328</v>
@@ -7578,7 +7578,7 @@
         <v>58158</v>
       </c>
       <c r="B38" t="n">
-        <v>135091</v>
+        <v>166002</v>
       </c>
       <c r="C38" t="s">
         <v>335</v>
@@ -7649,7 +7649,7 @@
         <v>58158</v>
       </c>
       <c r="B39" t="n">
-        <v>135092</v>
+        <v>166003</v>
       </c>
       <c r="C39" t="s">
         <v>343</v>
@@ -7720,7 +7720,7 @@
         <v>58158</v>
       </c>
       <c r="B40" t="n">
-        <v>135093</v>
+        <v>166004</v>
       </c>
       <c r="C40" t="s">
         <v>349</v>
@@ -7791,7 +7791,7 @@
         <v>58158</v>
       </c>
       <c r="B41" t="n">
-        <v>135094</v>
+        <v>166005</v>
       </c>
       <c r="C41" t="s">
         <v>355</v>
@@ -7862,7 +7862,7 @@
         <v>58158</v>
       </c>
       <c r="B42" t="n">
-        <v>135095</v>
+        <v>166006</v>
       </c>
       <c r="C42" t="s">
         <v>362</v>
@@ -8071,7 +8071,7 @@
         <v>58158</v>
       </c>
       <c r="B45" t="n">
-        <v>135096</v>
+        <v>166007</v>
       </c>
       <c r="C45" t="s">
         <v>381</v>
@@ -8353,7 +8353,7 @@
         <v>58158</v>
       </c>
       <c r="B49" t="n">
-        <v>135097</v>
+        <v>166008</v>
       </c>
       <c r="C49" t="s">
         <v>413</v>
@@ -8428,7 +8428,7 @@
         <v>58158</v>
       </c>
       <c r="B50" t="n">
-        <v>135098</v>
+        <v>166009</v>
       </c>
       <c r="C50" t="s">
         <v>420</v>
@@ -8499,7 +8499,7 @@
         <v>58158</v>
       </c>
       <c r="B51" t="n">
-        <v>135099</v>
+        <v>166010</v>
       </c>
       <c r="C51" t="s">
         <v>427</v>
@@ -8570,7 +8570,7 @@
         <v>58158</v>
       </c>
       <c r="B52" t="n">
-        <v>135100</v>
+        <v>166011</v>
       </c>
       <c r="C52" t="s">
         <v>433</v>
@@ -8712,7 +8712,7 @@
         <v>58158</v>
       </c>
       <c r="B54" t="n">
-        <v>135101</v>
+        <v>166012</v>
       </c>
       <c r="C54" t="s">
         <v>447</v>
@@ -8783,7 +8783,7 @@
         <v>58158</v>
       </c>
       <c r="B55" t="n">
-        <v>135102</v>
+        <v>166013</v>
       </c>
       <c r="C55" t="s">
         <v>453</v>
@@ -8854,7 +8854,7 @@
         <v>58158</v>
       </c>
       <c r="B56" t="n">
-        <v>135103</v>
+        <v>166014</v>
       </c>
       <c r="C56" t="s">
         <v>459</v>
@@ -8925,7 +8925,7 @@
         <v>58158</v>
       </c>
       <c r="B57" t="n">
-        <v>135104</v>
+        <v>166015</v>
       </c>
       <c r="C57" t="s">
         <v>467</v>
@@ -8996,7 +8996,7 @@
         <v>58158</v>
       </c>
       <c r="B58" t="n">
-        <v>135105</v>
+        <v>166016</v>
       </c>
       <c r="C58" t="s">
         <v>475</v>
@@ -9067,7 +9067,7 @@
         <v>58158</v>
       </c>
       <c r="B59" t="n">
-        <v>135106</v>
+        <v>166017</v>
       </c>
       <c r="C59" t="s">
         <v>480</v>
@@ -9134,7 +9134,7 @@
         <v>58158</v>
       </c>
       <c r="B60" t="n">
-        <v>135107</v>
+        <v>166018</v>
       </c>
       <c r="C60" t="s">
         <v>487</v>
@@ -9276,7 +9276,7 @@
         <v>58158</v>
       </c>
       <c r="B62" t="n">
-        <v>135108</v>
+        <v>166019</v>
       </c>
       <c r="C62" t="s">
         <v>500</v>
@@ -9347,7 +9347,7 @@
         <v>58158</v>
       </c>
       <c r="B63" t="n">
-        <v>135109</v>
+        <v>166020</v>
       </c>
       <c r="C63" t="s">
         <v>506</v>
@@ -9479,7 +9479,7 @@
         <v>58158</v>
       </c>
       <c r="B65" t="n">
-        <v>135110</v>
+        <v>166021</v>
       </c>
       <c r="C65" t="s">
         <v>518</v>
@@ -9544,7 +9544,7 @@
         <v>58158</v>
       </c>
       <c r="B66" t="n">
-        <v>135111</v>
+        <v>166022</v>
       </c>
       <c r="C66" t="s">
         <v>524</v>
@@ -9686,7 +9686,7 @@
         <v>58158</v>
       </c>
       <c r="B68" t="n">
-        <v>135112</v>
+        <v>166023</v>
       </c>
       <c r="C68" t="s">
         <v>538</v>
@@ -9757,7 +9757,7 @@
         <v>58158</v>
       </c>
       <c r="B69" t="n">
-        <v>135113</v>
+        <v>166024</v>
       </c>
       <c r="C69" t="s">
         <v>545</v>
@@ -9828,7 +9828,7 @@
         <v>58158</v>
       </c>
       <c r="B70" t="n">
-        <v>135114</v>
+        <v>166025</v>
       </c>
       <c r="C70" t="s">
         <v>551</v>
@@ -9893,7 +9893,7 @@
         <v>58158</v>
       </c>
       <c r="B71" t="n">
-        <v>135115</v>
+        <v>166026</v>
       </c>
       <c r="C71" t="s">
         <v>557</v>
@@ -9964,7 +9964,7 @@
         <v>58158</v>
       </c>
       <c r="B72" t="n">
-        <v>135116</v>
+        <v>166027</v>
       </c>
       <c r="C72" t="s">
         <v>563</v>
@@ -10035,7 +10035,7 @@
         <v>58158</v>
       </c>
       <c r="B73" t="n">
-        <v>135117</v>
+        <v>166028</v>
       </c>
       <c r="C73" t="s">
         <v>570</v>
@@ -10177,7 +10177,7 @@
         <v>58158</v>
       </c>
       <c r="B75" t="n">
-        <v>135118</v>
+        <v>166029</v>
       </c>
       <c r="C75" t="s">
         <v>582</v>
@@ -10248,7 +10248,7 @@
         <v>58158</v>
       </c>
       <c r="B76" t="n">
-        <v>135119</v>
+        <v>166030</v>
       </c>
       <c r="C76" t="s">
         <v>587</v>
@@ -10319,7 +10319,7 @@
         <v>58158</v>
       </c>
       <c r="B77" t="n">
-        <v>135120</v>
+        <v>166031</v>
       </c>
       <c r="C77" t="s">
         <v>592</v>
@@ -10380,7 +10380,7 @@
         <v>58158</v>
       </c>
       <c r="B78" t="n">
-        <v>135121</v>
+        <v>166032</v>
       </c>
       <c r="C78" t="s">
         <v>599</v>
@@ -10451,7 +10451,7 @@
         <v>58158</v>
       </c>
       <c r="B79" t="n">
-        <v>135122</v>
+        <v>166033</v>
       </c>
       <c r="C79" t="s">
         <v>605</v>
@@ -10597,7 +10597,7 @@
         <v>58158</v>
       </c>
       <c r="B81" t="n">
-        <v>135123</v>
+        <v>166034</v>
       </c>
       <c r="C81" t="s">
         <v>620</v>
@@ -10668,7 +10668,7 @@
         <v>58158</v>
       </c>
       <c r="B82" t="n">
-        <v>135124</v>
+        <v>166035</v>
       </c>
       <c r="C82" t="s">
         <v>626</v>
@@ -10739,7 +10739,7 @@
         <v>58158</v>
       </c>
       <c r="B83" t="n">
-        <v>135125</v>
+        <v>166036</v>
       </c>
       <c r="C83" t="s">
         <v>632</v>
@@ -10800,7 +10800,7 @@
         <v>58158</v>
       </c>
       <c r="B84" t="n">
-        <v>135126</v>
+        <v>166037</v>
       </c>
       <c r="C84" t="s">
         <v>639</v>
@@ -10861,7 +10861,7 @@
         <v>58158</v>
       </c>
       <c r="B85" t="n">
-        <v>135127</v>
+        <v>166038</v>
       </c>
       <c r="C85" t="s">
         <v>645</v>
@@ -10932,7 +10932,7 @@
         <v>58158</v>
       </c>
       <c r="B86" t="n">
-        <v>135128</v>
+        <v>166039</v>
       </c>
       <c r="C86" t="s">
         <v>653</v>
@@ -11074,7 +11074,7 @@
         <v>58158</v>
       </c>
       <c r="B88" t="n">
-        <v>135129</v>
+        <v>166040</v>
       </c>
       <c r="C88" t="s">
         <v>671</v>
@@ -11145,7 +11145,7 @@
         <v>58158</v>
       </c>
       <c r="B89" t="n">
-        <v>135130</v>
+        <v>166041</v>
       </c>
       <c r="C89" t="s">
         <v>677</v>
@@ -11350,7 +11350,7 @@
         <v>58158</v>
       </c>
       <c r="B92" t="n">
-        <v>135131</v>
+        <v>166042</v>
       </c>
       <c r="C92" t="s">
         <v>696</v>
@@ -11425,7 +11425,7 @@
         <v>58158</v>
       </c>
       <c r="B93" t="n">
-        <v>135132</v>
+        <v>166043</v>
       </c>
       <c r="C93" t="s">
         <v>706</v>
@@ -11500,7 +11500,7 @@
         <v>58158</v>
       </c>
       <c r="B94" t="n">
-        <v>135133</v>
+        <v>166044</v>
       </c>
       <c r="C94" t="s">
         <v>713</v>
@@ -11567,7 +11567,7 @@
         <v>58158</v>
       </c>
       <c r="B95" t="n">
-        <v>135134</v>
+        <v>166045</v>
       </c>
       <c r="C95" t="s">
         <v>720</v>
@@ -11638,7 +11638,7 @@
         <v>58158</v>
       </c>
       <c r="B96" t="n">
-        <v>135135</v>
+        <v>166046</v>
       </c>
       <c r="C96" t="s">
         <v>727</v>
@@ -11707,7 +11707,7 @@
         <v>58158</v>
       </c>
       <c r="B97" t="n">
-        <v>135136</v>
+        <v>166047</v>
       </c>
       <c r="C97" t="s">
         <v>734</v>
@@ -11778,7 +11778,7 @@
         <v>58158</v>
       </c>
       <c r="B98" t="n">
-        <v>135137</v>
+        <v>166048</v>
       </c>
       <c r="C98" t="s">
         <v>741</v>
@@ -11849,7 +11849,7 @@
         <v>58158</v>
       </c>
       <c r="B99" t="n">
-        <v>135138</v>
+        <v>166049</v>
       </c>
       <c r="C99" t="s">
         <v>747</v>
@@ -11920,7 +11920,7 @@
         <v>58158</v>
       </c>
       <c r="B100" t="n">
-        <v>135139</v>
+        <v>166050</v>
       </c>
       <c r="C100" t="s">
         <v>752</v>
@@ -11987,7 +11987,7 @@
         <v>58158</v>
       </c>
       <c r="B101" t="n">
-        <v>135140</v>
+        <v>166051</v>
       </c>
       <c r="C101" t="s">
         <v>760</v>
@@ -12058,7 +12058,7 @@
         <v>58158</v>
       </c>
       <c r="B102" t="n">
-        <v>135141</v>
+        <v>166052</v>
       </c>
       <c r="C102" t="s">
         <v>767</v>
@@ -12133,7 +12133,7 @@
         <v>58158</v>
       </c>
       <c r="B103" t="n">
-        <v>135142</v>
+        <v>166053</v>
       </c>
       <c r="C103" t="s">
         <v>773</v>
@@ -12204,7 +12204,7 @@
         <v>58158</v>
       </c>
       <c r="B104" t="n">
-        <v>135143</v>
+        <v>166054</v>
       </c>
       <c r="C104" t="s">
         <v>779</v>
@@ -12275,7 +12275,7 @@
         <v>58158</v>
       </c>
       <c r="B105" t="n">
-        <v>135144</v>
+        <v>166055</v>
       </c>
       <c r="C105" t="s">
         <v>787</v>
@@ -12346,7 +12346,7 @@
         <v>58158</v>
       </c>
       <c r="B106" t="n">
-        <v>135145</v>
+        <v>166056</v>
       </c>
       <c r="C106" t="s">
         <v>793</v>
@@ -12417,7 +12417,7 @@
         <v>58158</v>
       </c>
       <c r="B107" t="n">
-        <v>135146</v>
+        <v>166057</v>
       </c>
       <c r="C107" t="s">
         <v>798</v>
@@ -12484,7 +12484,7 @@
         <v>58158</v>
       </c>
       <c r="B108" t="n">
-        <v>135147</v>
+        <v>166058</v>
       </c>
       <c r="C108" t="s">
         <v>804</v>
@@ -12555,7 +12555,7 @@
         <v>58158</v>
       </c>
       <c r="B109" t="n">
-        <v>135148</v>
+        <v>166059</v>
       </c>
       <c r="C109" t="s">
         <v>809</v>
@@ -12616,7 +12616,7 @@
         <v>58158</v>
       </c>
       <c r="B110" t="n">
-        <v>135149</v>
+        <v>166060</v>
       </c>
       <c r="C110" t="s">
         <v>815</v>
@@ -12758,7 +12758,7 @@
         <v>58158</v>
       </c>
       <c r="B112" t="n">
-        <v>135150</v>
+        <v>166061</v>
       </c>
       <c r="C112" t="s">
         <v>830</v>
@@ -12829,7 +12829,7 @@
         <v>58158</v>
       </c>
       <c r="B113" t="n">
-        <v>135151</v>
+        <v>166062</v>
       </c>
       <c r="C113" t="s">
         <v>835</v>
@@ -13121,7 +13121,7 @@
         <v>58158</v>
       </c>
       <c r="B117" t="n">
-        <v>135152</v>
+        <v>166063</v>
       </c>
       <c r="C117" t="s">
         <v>865</v>
@@ -13196,7 +13196,7 @@
         <v>58158</v>
       </c>
       <c r="B118" t="n">
-        <v>135153</v>
+        <v>166064</v>
       </c>
       <c r="C118" t="s">
         <v>874</v>
@@ -13271,7 +13271,7 @@
         <v>58158</v>
       </c>
       <c r="B119" t="n">
-        <v>135154</v>
+        <v>166065</v>
       </c>
       <c r="C119" t="s">
         <v>881</v>
@@ -13342,7 +13342,7 @@
         <v>58158</v>
       </c>
       <c r="B120" t="n">
-        <v>135155</v>
+        <v>166066</v>
       </c>
       <c r="C120" t="s">
         <v>888</v>
@@ -13403,7 +13403,7 @@
         <v>58158</v>
       </c>
       <c r="B121" t="n">
-        <v>135156</v>
+        <v>166067</v>
       </c>
       <c r="C121" t="s">
         <v>896</v>
@@ -13470,7 +13470,7 @@
         <v>58158</v>
       </c>
       <c r="B122" t="n">
-        <v>135157</v>
+        <v>166068</v>
       </c>
       <c r="C122" t="s">
         <v>902</v>
@@ -13537,7 +13537,7 @@
         <v>58158</v>
       </c>
       <c r="B123" t="n">
-        <v>135158</v>
+        <v>166069</v>
       </c>
       <c r="C123" t="s">
         <v>909</v>
@@ -13750,7 +13750,7 @@
         <v>58158</v>
       </c>
       <c r="B126" t="n">
-        <v>135159</v>
+        <v>135094</v>
       </c>
       <c r="C126" t="s">
         <v>928</v>
@@ -13821,7 +13821,7 @@
         <v>58158</v>
       </c>
       <c r="B127" t="n">
-        <v>135160</v>
+        <v>166070</v>
       </c>
       <c r="C127" t="s">
         <v>935</v>
@@ -14034,7 +14034,7 @@
         <v>58158</v>
       </c>
       <c r="B130" t="n">
-        <v>135161</v>
+        <v>166071</v>
       </c>
       <c r="C130" t="s">
         <v>956</v>
@@ -14176,7 +14176,7 @@
         <v>58158</v>
       </c>
       <c r="B132" t="n">
-        <v>135162</v>
+        <v>166072</v>
       </c>
       <c r="C132" t="s">
         <v>972</v>
@@ -14385,7 +14385,7 @@
         <v>58158</v>
       </c>
       <c r="B135" t="n">
-        <v>135163</v>
+        <v>166073</v>
       </c>
       <c r="C135" t="s">
         <v>992</v>
@@ -14456,7 +14456,7 @@
         <v>58158</v>
       </c>
       <c r="B136" t="n">
-        <v>135164</v>
+        <v>166074</v>
       </c>
       <c r="C136" t="s">
         <v>998</v>
@@ -14602,7 +14602,7 @@
         <v>58158</v>
       </c>
       <c r="B138" t="n">
-        <v>135165</v>
+        <v>166075</v>
       </c>
       <c r="C138" t="s">
         <v>1015</v>
@@ -14673,7 +14673,7 @@
         <v>58158</v>
       </c>
       <c r="B139" t="n">
-        <v>135166</v>
+        <v>166076</v>
       </c>
       <c r="C139" t="s">
         <v>1021</v>
@@ -14744,7 +14744,7 @@
         <v>58158</v>
       </c>
       <c r="B140" t="n">
-        <v>135167</v>
+        <v>166077</v>
       </c>
       <c r="C140" t="s">
         <v>1027</v>
@@ -14801,7 +14801,7 @@
         <v>58158</v>
       </c>
       <c r="B141" t="n">
-        <v>135168</v>
+        <v>166078</v>
       </c>
       <c r="C141" t="s">
         <v>1033</v>
@@ -15014,7 +15014,7 @@
         <v>58158</v>
       </c>
       <c r="B144" t="n">
-        <v>135158</v>
+        <v>135094</v>
       </c>
       <c r="C144" t="s">
         <v>928</v>
@@ -15075,7 +15075,7 @@
         <v>58158</v>
       </c>
       <c r="B145" t="n">
-        <v>135169</v>
+        <v>166079</v>
       </c>
       <c r="C145" t="s">
         <v>1058</v>
@@ -15146,7 +15146,7 @@
         <v>58158</v>
       </c>
       <c r="B146" t="n">
-        <v>135170</v>
+        <v>166080</v>
       </c>
       <c r="C146" t="s">
         <v>1065</v>
@@ -15217,7 +15217,7 @@
         <v>58158</v>
       </c>
       <c r="B147" t="n">
-        <v>135171</v>
+        <v>166081</v>
       </c>
       <c r="C147" t="s">
         <v>1071</v>
@@ -15288,7 +15288,7 @@
         <v>58158</v>
       </c>
       <c r="B148" t="n">
-        <v>135172</v>
+        <v>166082</v>
       </c>
       <c r="C148" t="s">
         <v>1077</v>
@@ -15359,7 +15359,7 @@
         <v>58158</v>
       </c>
       <c r="B149" t="n">
-        <v>135173</v>
+        <v>166083</v>
       </c>
       <c r="C149" t="s">
         <v>1082</v>
@@ -15428,7 +15428,7 @@
         <v>58158</v>
       </c>
       <c r="B150" t="n">
-        <v>135174</v>
+        <v>166084</v>
       </c>
       <c r="C150" t="s">
         <v>1091</v>
@@ -15503,7 +15503,7 @@
         <v>58158</v>
       </c>
       <c r="B151" t="n">
-        <v>135175</v>
+        <v>166085</v>
       </c>
       <c r="C151" t="s">
         <v>1099</v>
@@ -15574,7 +15574,7 @@
         <v>58158</v>
       </c>
       <c r="B152" t="n">
-        <v>135176</v>
+        <v>166086</v>
       </c>
       <c r="C152" t="s">
         <v>1107</v>
@@ -15791,7 +15791,7 @@
         <v>58158</v>
       </c>
       <c r="B155" t="n">
-        <v>135177</v>
+        <v>166087</v>
       </c>
       <c r="C155" t="s">
         <v>1129</v>
@@ -15937,7 +15937,7 @@
         <v>58158</v>
       </c>
       <c r="B157" t="n">
-        <v>135178</v>
+        <v>166088</v>
       </c>
       <c r="C157" t="s">
         <v>1146</v>
@@ -16070,7 +16070,7 @@
         <v>58158</v>
       </c>
       <c r="B159" t="n">
-        <v>135179</v>
+        <v>166089</v>
       </c>
       <c r="C159" t="s">
         <v>1157</v>
@@ -16356,7 +16356,7 @@
         <v>58158</v>
       </c>
       <c r="B163" t="n">
-        <v>135180</v>
+        <v>166090</v>
       </c>
       <c r="C163" t="s">
         <v>1184</v>
@@ -16498,7 +16498,7 @@
         <v>58158</v>
       </c>
       <c r="B165" t="n">
-        <v>135181</v>
+        <v>166091</v>
       </c>
       <c r="C165" t="s">
         <v>1198</v>
@@ -16715,7 +16715,7 @@
         <v>58158</v>
       </c>
       <c r="B168" t="n">
-        <v>135182</v>
+        <v>166092</v>
       </c>
       <c r="C168" t="s">
         <v>1218</v>
@@ -16786,7 +16786,7 @@
         <v>58158</v>
       </c>
       <c r="B169" t="n">
-        <v>135183</v>
+        <v>166093</v>
       </c>
       <c r="C169" t="s">
         <v>1224</v>
@@ -16857,7 +16857,7 @@
         <v>58158</v>
       </c>
       <c r="B170" t="n">
-        <v>135184</v>
+        <v>166094</v>
       </c>
       <c r="C170" t="s">
         <v>1230</v>
@@ -17274,7 +17274,7 @@
         <v>58158</v>
       </c>
       <c r="B176" t="n">
-        <v>135185</v>
+        <v>166095</v>
       </c>
       <c r="C176" t="s">
         <v>1266</v>
@@ -17416,7 +17416,7 @@
         <v>58158</v>
       </c>
       <c r="B178" t="n">
-        <v>135186</v>
+        <v>166096</v>
       </c>
       <c r="C178" t="s">
         <v>1279</v>
@@ -17487,7 +17487,7 @@
         <v>58158</v>
       </c>
       <c r="B179" t="n">
-        <v>135187</v>
+        <v>166097</v>
       </c>
       <c r="C179" t="s">
         <v>1286</v>
@@ -17842,7 +17842,7 @@
         <v>58158</v>
       </c>
       <c r="B184" t="n">
-        <v>135188</v>
+        <v>166098</v>
       </c>
       <c r="C184" t="s">
         <v>1317</v>
@@ -17980,7 +17980,7 @@
         <v>58158</v>
       </c>
       <c r="B186" t="n">
-        <v>135189</v>
+        <v>166099</v>
       </c>
       <c r="C186" t="s">
         <v>1329</v>
@@ -18051,7 +18051,7 @@
         <v>58158</v>
       </c>
       <c r="B187" t="n">
-        <v>135190</v>
+        <v>166100</v>
       </c>
       <c r="C187" t="s">
         <v>1336</v>
@@ -18122,7 +18122,7 @@
         <v>58158</v>
       </c>
       <c r="B188" t="n">
-        <v>135191</v>
+        <v>166101</v>
       </c>
       <c r="C188" t="s">
         <v>1342</v>
@@ -18193,7 +18193,7 @@
         <v>58158</v>
       </c>
       <c r="B189" t="n">
-        <v>135192</v>
+        <v>166102</v>
       </c>
       <c r="C189" t="s">
         <v>1350</v>
@@ -18268,7 +18268,7 @@
         <v>58158</v>
       </c>
       <c r="B190" t="n">
-        <v>135193</v>
+        <v>166103</v>
       </c>
       <c r="C190" t="s">
         <v>1360</v>
@@ -18414,7 +18414,7 @@
         <v>58158</v>
       </c>
       <c r="B192" t="n">
-        <v>135194</v>
+        <v>166104</v>
       </c>
       <c r="C192" t="s">
         <v>1375</v>
@@ -18485,7 +18485,7 @@
         <v>58158</v>
       </c>
       <c r="B193" t="n">
-        <v>135195</v>
+        <v>166105</v>
       </c>
       <c r="C193" t="s">
         <v>1381</v>
@@ -18560,7 +18560,7 @@
         <v>58158</v>
       </c>
       <c r="B194" t="n">
-        <v>135196</v>
+        <v>166106</v>
       </c>
       <c r="C194" t="s">
         <v>1388</v>
@@ -18631,7 +18631,7 @@
         <v>58158</v>
       </c>
       <c r="B195" t="n">
-        <v>135197</v>
+        <v>166107</v>
       </c>
       <c r="C195" t="s">
         <v>1394</v>
@@ -18773,7 +18773,7 @@
         <v>58158</v>
       </c>
       <c r="B197" t="n">
-        <v>135198</v>
+        <v>166108</v>
       </c>
       <c r="C197" t="s">
         <v>1407</v>
@@ -18844,7 +18844,7 @@
         <v>58158</v>
       </c>
       <c r="B198" t="n">
-        <v>135199</v>
+        <v>166109</v>
       </c>
       <c r="C198" t="s">
         <v>1414</v>
@@ -18911,7 +18911,7 @@
         <v>58158</v>
       </c>
       <c r="B199" t="n">
-        <v>135200</v>
+        <v>166110</v>
       </c>
       <c r="C199" t="s">
         <v>1420</v>
@@ -18982,7 +18982,7 @@
         <v>58158</v>
       </c>
       <c r="B200" t="n">
-        <v>135201</v>
+        <v>166111</v>
       </c>
       <c r="C200" t="s">
         <v>1428</v>
@@ -19053,7 +19053,7 @@
         <v>58158</v>
       </c>
       <c r="B201" t="n">
-        <v>135202</v>
+        <v>166112</v>
       </c>
       <c r="C201" t="s">
         <v>1435</v>
@@ -19189,7 +19189,7 @@
         <v>58158</v>
       </c>
       <c r="B203" t="n">
-        <v>135203</v>
+        <v>166113</v>
       </c>
       <c r="C203" t="s">
         <v>1450</v>
@@ -19260,7 +19260,7 @@
         <v>58158</v>
       </c>
       <c r="B204" t="n">
-        <v>135204</v>
+        <v>166114</v>
       </c>
       <c r="C204" t="s">
         <v>1458</v>
@@ -19325,7 +19325,7 @@
         <v>58158</v>
       </c>
       <c r="B205" t="n">
-        <v>135205</v>
+        <v>166115</v>
       </c>
       <c r="C205" t="s">
         <v>1468</v>
@@ -19396,7 +19396,7 @@
         <v>58158</v>
       </c>
       <c r="B206" t="n">
-        <v>135206</v>
+        <v>166116</v>
       </c>
       <c r="C206" t="s">
         <v>1475</v>
@@ -19467,7 +19467,7 @@
         <v>58158</v>
       </c>
       <c r="B207" t="n">
-        <v>135207</v>
+        <v>166117</v>
       </c>
       <c r="C207" t="s">
         <v>1483</v>
